--- a/constant/evaluation/result/curated_ragas_question.xlsx
+++ b/constant/evaluation/result/curated_ragas_question.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan Delton\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCBC_CRAYON_INTERNSHIP_DATA\ocbc_compliance_gpt\constant\evaluation\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CCB9BB-BDDA-44C0-BAF6-9D98E5960A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C30C1E3-B898-4A15-B184-63035D5E0670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{56A1A5D1-CF7D-4C8A-831A-13502F3DBB06}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>questions</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>Pengembangan aplikasi baru untuk pendaftaran uang elektronik yang membutuhkan izin otoritas sistem pembayaran serta hanya memiliki fitur terkait dengan produk sistem pembayaran, mengikuti mekanisme penyelenggaraan produk Bank dasar sesuai dengan Peraturan Otoritas Jasa Keuangan mengenai penyelenggaraan produk bank umum.</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>Lembaga Sertifikasi Profesi adalah organisasi tingkat nasional yang berkedudukan di wilayah Republik Indonesia. Lembaga ini memiliki tugas dan tanggung jawab untuk mengembangkan kebijakan dan prosedur tertulis yang diperlukan dalam pelaksanaan proses sertifikasi kompetensi kerja. Selain itu, Lembaga Sertifikasi Profesi juga bertanggung jawab dalam menerbitkan sertifikat kompetensi kerja atas nama BNSP yang mencantumkan informasi seperti nama pemegang sertifikat, jenjang kualifikasi, bidang pekerjaan atau profesi, unit kompetensi, dan masa berlaku sertifikat. Lembaga Sertifikasi Profesi juga melaksanakan kegiatan sertifikasi profesi di bidang tertentu dan telah memperoleh lisensi dari lembaga negara yang berwenang memberikan lisensi terhadap lembaga sertifikasi profesi di Indonesia. Lembaga ini juga melakukan sertifikasi kompetensi kerja sesuai dengan ketentuan peraturan perundang-undangan dan bertanggung jawab dalam mengidentifikasi, mengukur, memantau, dan mengendalikan risiko yang timbul dari kegiatan usaha Bank.
@@ -723,7 +720,7 @@
     <t>Parameter yang digunakan antara lain penilaian tingkat maturitas digital Bank (digital maturity assessment for banks/DMAB) dan parameter terkait penerapan penyelenggaraan TI sesuai dengan Peraturan Otoritas Jasa Keuangan mengenai penyelenggaraan TI oleh Bank.</t>
   </si>
   <si>
-    <t>AVERAGE</t>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -800,26 +797,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1137,982 +1124,905 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FA3C69-CF3E-4068-ACD0-3A2DA3346887}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="6"/>
-    <col min="3" max="3" width="8.7265625" style="2"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.83899069449747365</v>
+      </c>
+      <c r="G2">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0.74165033838268979</v>
+      </c>
+      <c r="J2">
+        <v>0.58014942670093561</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.72557389713200193</v>
+      </c>
+      <c r="G3">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0.87619144038779795</v>
+      </c>
+      <c r="J3">
+        <v>0.83088996536010695</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="F4">
+        <v>0.66370385334102322</v>
+      </c>
+      <c r="G4">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0.8610832154853657</v>
+      </c>
+      <c r="J4">
+        <v>0.71527080387134145</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F5">
+        <v>0.63273466874722806</v>
+      </c>
+      <c r="G5">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.85038133395213777</v>
+      </c>
+      <c r="J5">
+        <v>0.75805041101299908</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="F6">
+        <v>0.70703541274969339</v>
+      </c>
+      <c r="G6">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0.79718358313006266</v>
+      </c>
+      <c r="J6">
+        <v>0.94937704559595459</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="F7">
+        <v>0.71907977023066338</v>
+      </c>
+      <c r="G7">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0.897333483312025</v>
+      </c>
+      <c r="J7">
+        <v>0.84933337082800597</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="F8">
+        <v>0.66002390294201818</v>
+      </c>
+      <c r="G8">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.75278011519915222</v>
+      </c>
+      <c r="J8">
+        <v>0.25961209923016171</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.59650184267498274</v>
+      </c>
+      <c r="G9">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0.84576731285990203</v>
+      </c>
+      <c r="J9">
+        <v>0.81144182821497601</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.83899069449747365</v>
-      </c>
-      <c r="H2">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0.74165033838268979</v>
-      </c>
-      <c r="K2">
-        <v>0.58014942670093561</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.72557389713200193</v>
-      </c>
-      <c r="H3">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0.7761914403877983</v>
-      </c>
-      <c r="K3">
-        <v>0.43088996536010749</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>0.90909090909090917</v>
-      </c>
-      <c r="G4">
-        <v>0.66370385334102322</v>
-      </c>
-      <c r="H4">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0.8610832154853657</v>
-      </c>
-      <c r="K4">
-        <v>0.71527080387134145</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="G5">
-        <v>0.63273466874722806</v>
-      </c>
-      <c r="H5">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0.85038133395213777</v>
-      </c>
-      <c r="K5">
-        <v>0.75805041101299908</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="G6">
-        <v>0.70703541274969339</v>
-      </c>
-      <c r="H6">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0.79718358313006266</v>
-      </c>
-      <c r="K6">
-        <v>0.94937704559595459</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>0.95652173913043481</v>
-      </c>
-      <c r="G7">
-        <v>0.71907977023066338</v>
-      </c>
-      <c r="H7">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.59733348331202507</v>
-      </c>
-      <c r="K7">
-        <v>0.44933337082800601</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>0.78260869565217395</v>
-      </c>
-      <c r="G8">
-        <v>0.66002390294201818</v>
-      </c>
-      <c r="H8">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0.75278011519915222</v>
-      </c>
-      <c r="K8">
-        <v>0.25961209923016171</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.59650184267498274</v>
-      </c>
-      <c r="H9">
-        <v>0.99999999989999999</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.84576731285990203</v>
-      </c>
-      <c r="K9">
-        <v>0.51144182821497552</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
         <v>19</v>
       </c>
+      <c r="E10">
+        <v>0.83870967741935487</v>
+      </c>
       <c r="F10">
-        <v>0.83870967741935487</v>
+        <v>0.93676799814937595</v>
       </c>
       <c r="G10">
-        <v>0.93676799814937595</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="H10">
-        <v>0.99999999989999999</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.72688289841147236</v>
       </c>
       <c r="J10">
-        <v>0.72688289841147236</v>
+        <v>0.83172072460286817</v>
       </c>
       <c r="K10">
-        <v>0.83172072460286817</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
       </c>
       <c r="C11" t="s">
         <v>78</v>
       </c>
       <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.99909781828881139</v>
+      </c>
+      <c r="G11">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H11">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I11">
+        <v>0.8355166633200044</v>
+      </c>
+      <c r="J11">
+        <v>0.95888142206359617</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>79</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.99909781828881139</v>
-      </c>
-      <c r="H11">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I11">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="J11">
-        <v>0.8355166633200044</v>
-      </c>
-      <c r="K11">
-        <v>0.95888142206359617</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>80</v>
       </c>
       <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.80210068362239151</v>
+      </c>
+      <c r="G12">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0.81954439718275252</v>
+      </c>
+      <c r="J12">
+        <v>0.89238609929568813</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.80210068362239151</v>
-      </c>
-      <c r="H12">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0.81954439718275252</v>
-      </c>
-      <c r="K12">
-        <v>0.89238609929568813</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>82</v>
       </c>
       <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>0.9</v>
+      </c>
+      <c r="F13">
+        <v>0.89860606587492831</v>
+      </c>
+      <c r="G13">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0.80456092850821714</v>
+      </c>
+      <c r="J13">
+        <v>0.70115532073476605</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>83</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13">
-        <v>0.9</v>
-      </c>
-      <c r="G13">
-        <v>0.89860606587492831</v>
-      </c>
-      <c r="H13">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0.80456092850821714</v>
-      </c>
-      <c r="K13">
-        <v>0.40115532073476617</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>84</v>
       </c>
       <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="F14">
+        <v>0.93033929605785959</v>
+      </c>
+      <c r="G14">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0.77274996263985907</v>
+      </c>
+      <c r="J14">
+        <v>0.94318749065996477</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
         <v>85</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="G14">
-        <v>0.93033929605785959</v>
-      </c>
-      <c r="H14">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0.77274996263985907</v>
-      </c>
-      <c r="K14">
-        <v>0.94318749065996477</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>86</v>
       </c>
       <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.81118265348783247</v>
+      </c>
+      <c r="G15">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0.77730614139528442</v>
+      </c>
+      <c r="J15">
+        <v>0.60341744443973022</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>87</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.81118265348783247</v>
-      </c>
-      <c r="H15">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0.77730614139528442</v>
-      </c>
-      <c r="K15">
-        <v>0.60341744443973022</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>88</v>
       </c>
       <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>0.77419354838709675</v>
+      </c>
+      <c r="F16">
+        <v>0.99999999999999922</v>
+      </c>
+      <c r="G16">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0.76772315889973952</v>
+      </c>
+      <c r="J16">
+        <v>0.94195517608141377</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>89</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16">
-        <v>0.77419354838709675</v>
-      </c>
-      <c r="G16">
-        <v>0.99999999999999922</v>
-      </c>
-      <c r="H16">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0.76772315889973952</v>
-      </c>
-      <c r="K16">
-        <v>0.94195517608141377</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>90</v>
       </c>
       <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.73212361332909104</v>
+      </c>
+      <c r="G17">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0.80575762329619582</v>
+      </c>
+      <c r="J17">
+        <v>0.95143976745211722</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
         <v>91</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.73212361332909104</v>
-      </c>
-      <c r="H17">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0.80575762329619582</v>
-      </c>
-      <c r="K17">
-        <v>0.95143976745211722</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>92</v>
       </c>
       <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.96953460197760721</v>
+      </c>
+      <c r="G18">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0.91812996557478599</v>
+      </c>
+      <c r="J18">
+        <v>0.95450980939012897</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>93</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.96953460197760721</v>
-      </c>
-      <c r="H18">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0.61812996557478639</v>
-      </c>
-      <c r="K18">
-        <v>0.35450980939012861</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>94</v>
       </c>
       <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.96422088929292604</v>
+      </c>
+      <c r="G19">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0.90260474448255301</v>
+      </c>
+      <c r="J19">
+        <v>0.86567127019498302</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>95</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.76422088929292586</v>
-      </c>
-      <c r="H19">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0.50260474448255288</v>
-      </c>
-      <c r="K19">
-        <v>0.36567127019498302</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>96</v>
       </c>
       <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.88543105028195568</v>
+      </c>
+      <c r="G20">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0.88740459931729099</v>
+      </c>
+      <c r="J20">
+        <v>0.84830838479543802</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>97</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.88543105028195568</v>
-      </c>
-      <c r="H20">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0.2874045993172909</v>
-      </c>
-      <c r="K20">
-        <v>0.2483083847954381</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>98</v>
       </c>
       <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="F21">
+        <v>0.77805491793844839</v>
+      </c>
+      <c r="G21">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0.92644702764404097</v>
+      </c>
+      <c r="J21">
+        <v>0.83736203588331204</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
         <v>99</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21">
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="G21">
-        <v>0.77805491793844839</v>
-      </c>
-      <c r="H21">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0.8264470276440411</v>
-      </c>
-      <c r="K21">
-        <v>0.43736203588331168</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>100</v>
       </c>
       <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.91483970188032804</v>
+      </c>
+      <c r="G22">
+        <v>0.99999999995</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0.90230704227208203</v>
+      </c>
+      <c r="J22">
+        <v>0.90057676056802005</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
         <v>101</v>
-      </c>
-      <c r="E22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.71483970188032819</v>
-      </c>
-      <c r="H22">
-        <v>0.99999999995</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0.40230704227208181</v>
-      </c>
-      <c r="K22">
-        <v>0.30057676056802002</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>102</v>
       </c>
       <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.89181112399130802</v>
+      </c>
+      <c r="G23">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0.78951796277879605</v>
+      </c>
+      <c r="J23">
+        <v>0.78701432656530301</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
         <v>103</v>
-      </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.89181112399130802</v>
-      </c>
-      <c r="H23">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0.58951796277879642</v>
-      </c>
-      <c r="K23">
-        <v>0.58701432656530261</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>104</v>
       </c>
       <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="F24">
+        <v>0.60072061880431316</v>
+      </c>
+      <c r="G24">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0.78715307488838981</v>
+      </c>
+      <c r="J24">
+        <v>0.79680784128325699</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
         <v>105</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24">
-        <v>0.84615384615384615</v>
-      </c>
-      <c r="G24">
-        <v>0.60072061880431316</v>
-      </c>
-      <c r="H24">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0.78715307488838981</v>
-      </c>
-      <c r="K24">
-        <v>0.39680784128325719</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C25" t="s">
         <v>106</v>
       </c>
       <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <v>0.69354568851578968</v>
+      </c>
+      <c r="G25">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0.7577646941936016</v>
+      </c>
+      <c r="J25">
+        <v>0.68944333559610005</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>107</v>
       </c>
-      <c r="E25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25">
-        <v>0.5</v>
-      </c>
-      <c r="G25">
-        <v>0.69354568851578968</v>
-      </c>
-      <c r="H25">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0.7577646941936016</v>
-      </c>
-      <c r="K25">
-        <v>0.68944333559610005</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" t="s">
         <v>108</v>
       </c>
       <c r="C26" t="s">
@@ -2121,36 +2031,33 @@
       <c r="D26" t="s">
         <v>110</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F26">
+        <v>0.84028957911555013</v>
+      </c>
+      <c r="G26">
+        <v>0.83333333329166659</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0.85161466528074703</v>
+      </c>
+      <c r="J26">
+        <v>0.81290366632018696</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>111</v>
       </c>
-      <c r="F26">
-        <v>0.45454545454545447</v>
-      </c>
-      <c r="G26">
-        <v>0.84028957911555013</v>
-      </c>
-      <c r="H26">
-        <v>0.83333333329166659</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0.65161466528074663</v>
-      </c>
-      <c r="K26">
-        <v>0.4129036663201866</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" t="s">
         <v>112</v>
       </c>
       <c r="C27" t="s">
@@ -2159,36 +2066,33 @@
       <c r="D27" t="s">
         <v>114</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.81197357655064872</v>
+      </c>
+      <c r="G27">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0.68181789879063159</v>
+      </c>
+      <c r="J27">
+        <v>0.57050572727654403</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>115</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.81197357655064872</v>
-      </c>
-      <c r="H27">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0.68181789879063159</v>
-      </c>
-      <c r="K27">
-        <v>0.57050572727654403</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" t="s">
         <v>116</v>
       </c>
       <c r="C28" t="s">
@@ -2197,36 +2101,33 @@
       <c r="D28" t="s">
         <v>118</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="F28">
+        <v>0.80007739918537535</v>
+      </c>
+      <c r="G28">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="H28">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="I28">
+        <v>0.83885783016462012</v>
+      </c>
+      <c r="J28">
+        <v>0.87638112420782166</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>119</v>
       </c>
-      <c r="F28">
-        <v>0.1666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.80007739918537535</v>
-      </c>
-      <c r="H28">
-        <v>0.99999999989999999</v>
-      </c>
-      <c r="I28">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="J28">
-        <v>0.83885783016462012</v>
-      </c>
-      <c r="K28">
-        <v>0.87638112420782166</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" t="s">
         <v>120</v>
       </c>
       <c r="C29" t="s">
@@ -2235,36 +2136,33 @@
       <c r="D29" t="s">
         <v>122</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.79186635308481323</v>
+      </c>
+      <c r="G29">
+        <v>0.83333333329166659</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0.941421600392502</v>
+      </c>
+      <c r="J29">
+        <v>0.87362760602029299</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>123</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.79186635308481323</v>
-      </c>
-      <c r="H29">
-        <v>0.83333333329166659</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0.74142160039250193</v>
-      </c>
-      <c r="K29">
-        <v>0.2736276060202934</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" t="s">
         <v>124</v>
       </c>
       <c r="C30" t="s">
@@ -2273,36 +2171,33 @@
       <c r="D30" t="s">
         <v>126</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.98325510266983418</v>
+      </c>
+      <c r="G30">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I30">
+        <v>0.80572372435713824</v>
+      </c>
+      <c r="J30">
+        <v>0.95143093108928456</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>127</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.98325510266983418</v>
-      </c>
-      <c r="H30">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I30">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J30">
-        <v>0.80572372435713824</v>
-      </c>
-      <c r="K30">
-        <v>0.95143093108928456</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" t="s">
         <v>128</v>
       </c>
       <c r="C31" t="s">
@@ -2311,71 +2206,67 @@
       <c r="D31" t="s">
         <v>130</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F31">
+        <v>0.76318674898132333</v>
+      </c>
+      <c r="G31">
+        <v>0.99999999996666677</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0.84165159920732191</v>
+      </c>
+      <c r="J31">
+        <v>0.83541635935455738</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F31">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G31">
-        <v>0.76318674898132333</v>
-      </c>
-      <c r="H31">
-        <v>0.99999999996666677</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0.84165159920732191</v>
-      </c>
-      <c r="K31">
-        <v>0.83541635935455738</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="7">
-        <f>AVERAGE(F2:F31)</f>
-        <v>0.8535735421920555</v>
-      </c>
-      <c r="G32" s="7">
-        <f t="shared" ref="G32:K32" si="0">AVERAGE(G2:G31)</f>
-        <v>0.79808898411318652</v>
-      </c>
-      <c r="H32" s="7">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="3">
+        <f>AVERAGE(E2:E31)</f>
+        <v>0.89471832333683676</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" ref="F32:J32" si="0">AVERAGE(F2:F31)</f>
+        <v>0.81142231744651971</v>
+      </c>
+      <c r="G32" s="3">
         <f t="shared" si="0"/>
         <v>0.98888888884777837</v>
       </c>
-      <c r="I32" s="7">
+      <c r="H32" s="3">
         <f t="shared" si="0"/>
         <v>0.88042328042328044</v>
       </c>
-      <c r="J32" s="7">
+      <c r="I32" s="3">
         <f t="shared" si="0"/>
-        <v>0.72882763419023855</v>
-      </c>
-      <c r="K32" s="7">
+        <v>0.82549430085690512</v>
+      </c>
+      <c r="J32" s="3">
         <f t="shared" si="0"/>
-        <v>0.61594091915632854</v>
-      </c>
-      <c r="L32" s="7">
-        <f>AVERAGE(L2:L31)</f>
+        <v>0.80594091915632837</v>
+      </c>
+      <c r="K32" s="3">
+        <f>AVERAGE(K2:K31)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2383,6 +2274,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5a30c59a-9775-4835-a28c-e47b640207b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x0101005E542723A4F9E74BAE7837DC330B2A53" ma:contentTypeVersion="18" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="0a543ed5dde27a766544540e7cd42a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5a30c59a-9775-4835-a28c-e47b640207b4" xmlns:ns4="cadc518f-9234-42dc-85bb-da6b9181bbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dcdcf29ba730029c5bc04060aeebc56a" ns3:_="" ns4:_="">
     <xsd:import namespace="5a30c59a-9775-4835-a28c-e47b640207b4"/>
@@ -2635,7 +2534,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2644,15 +2543,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5a30c59a-9775-4835-a28c-e47b640207b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9285ED4E-AE69-4ECC-A5CA-5BC410EA0F03}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="cadc518f-9234-42dc-85bb-da6b9181bbb7"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5a30c59a-9775-4835-a28c-e47b640207b4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5AB57DF-DF81-416A-AE51-A73AAC89374D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2671,27 +2579,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D32E6F0-5F69-419E-9500-72240CAAC392}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9285ED4E-AE69-4ECC-A5CA-5BC410EA0F03}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="cadc518f-9234-42dc-85bb-da6b9181bbb7"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5a30c59a-9775-4835-a28c-e47b640207b4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>